--- a/data/d-inzidenz-zum-download-service.xlsx
+++ b/data/d-inzidenz-zum-download-service.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="15">
   <si>
     <t>Datum</t>
   </si>
@@ -476,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H358"/>
+  <dimension ref="A1:H365"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A341" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C359" sqref="C359"/>
+      <selection activeCell="G358" sqref="G358"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7305,6 +7305,125 @@
       </c>
       <c r="E358" s="27">
         <v>81.457065228838019</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A359" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B359" s="13">
+        <v>44258</v>
+      </c>
+      <c r="C359" s="4">
+        <v>52466</v>
+      </c>
+      <c r="D359">
+        <v>1535</v>
+      </c>
+      <c r="E359" s="27">
+        <v>80.825206933591701</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A360" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B360" s="13">
+        <v>44259</v>
+      </c>
+      <c r="C360" s="4">
+        <v>52734</v>
+      </c>
+      <c r="D360">
+        <v>1460</v>
+      </c>
+      <c r="E360" s="27">
+        <v>76.8760925883022</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A361" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B361" s="13">
+        <v>44260</v>
+      </c>
+      <c r="C361" s="4">
+        <v>52957</v>
+      </c>
+      <c r="D361">
+        <v>1495</v>
+      </c>
+      <c r="E361" s="27">
+        <v>78.719012616103967</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A362" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B362" s="13">
+        <v>44261</v>
+      </c>
+      <c r="C362" s="4">
+        <v>53189</v>
+      </c>
+      <c r="D362">
+        <v>1524</v>
+      </c>
+      <c r="E362" s="27">
+        <v>80.246003496282569</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A363" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B363" s="2">
+        <v>44262</v>
+      </c>
+      <c r="C363" s="5">
+        <v>53359</v>
+      </c>
+      <c r="D363" s="5">
+        <v>1568</v>
+      </c>
+      <c r="E363" s="28">
+        <v>82.562817245519071</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A364" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B364" s="13">
+        <v>44263</v>
+      </c>
+      <c r="C364" s="4">
+        <v>53555</v>
+      </c>
+      <c r="D364">
+        <v>1506</v>
+      </c>
+      <c r="E364" s="27">
+        <v>79.2982160534131</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A365" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B365" s="13">
+        <v>44264</v>
+      </c>
+      <c r="C365" s="4">
+        <v>53758</v>
+      </c>
+      <c r="D365">
+        <v>1526</v>
+      </c>
+      <c r="E365" s="27">
+        <v>80.351313212156953</v>
       </c>
     </row>
   </sheetData>
